--- a/Questions&Answers.xlsx
+++ b/Questions&Answers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a780656\PycharmProjects\Questions&amp;Answers\Questions&amp;Answers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a780656\PycharmProjects\Questions&amp;Answers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D113164F-9ED8-462D-A5ED-AD77020CB569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31DDFBB-436B-45DD-8F12-99532729C8A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0CB1F674-DF10-4DA5-8264-A356DD31FC8E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>What is Polymorphism?</t>
   </si>
@@ -211,11 +211,6 @@
 - Friend class</t>
   </si>
   <si>
-    <t>Static Components: (static attributes, static events, and static methods) exist globally, no need to create object/instance of the class to access them, we can access them by using static component selector =&gt;
-- Static Class: A class that only contains static components and no instance components is referred to as a static class
-- Singleton Class: Is a class which does not allow you to create multiple instances. A class that can have only one object at a time.</t>
-  </si>
-  <si>
     <t>Global
 - Local Exceptions Class</t>
   </si>
@@ -244,6 +239,17 @@
 - The new classes, knows as derived classes, inherit attributes and behaviour of the pre-existing classes, called base classes.
 - Inheritance is the ability of an object to inherit the properties and methods of another object. 
 - This leads to the creation of families of objects with parent and child objects.</t>
+  </si>
+  <si>
+    <t>Static Components: (static attributes, static events, and static methods) exist globally, no need to create object/instance of the class to access them, we can access them by using static component selector =&gt;
+- Static Class: A class that only contains static components and no instance components is referred to as a static class.
+- Singleton Class: Is a class which does not allow you to create multiple instances. A class that can have only one object at a time.</t>
+  </si>
+  <si>
+    <t>QUESTIONS</t>
+  </si>
+  <si>
+    <t>ANSWERS</t>
   </si>
 </sst>
 </file>
@@ -598,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DE770C-ACC0-4B60-880F-E3D28DBBCDEA}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,247 +616,255 @@
     <col min="2" max="2" width="251.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="1" t="s">
+    <row r="31" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Questions&Answers.xlsx
+++ b/Questions&Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a780656\PycharmProjects\Questions&amp;Answers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31DDFBB-436B-45DD-8F12-99532729C8A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEE6C80-9A5B-46EB-8AC5-4684AFF0B112}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0CB1F674-DF10-4DA5-8264-A356DD31FC8E}"/>
   </bookViews>
@@ -265,15 +265,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -281,15 +287,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,25 +644,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18DE770C-ACC0-4B60-880F-E3D28DBBCDEA}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="251.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
